--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1990570.545884992</v>
+        <v>2034258.181160127</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484438</v>
+        <v>278692.0725916853</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5827320.450369396</v>
+        <v>5908647.739346817</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>48.39378990265058</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>30.44892042410048</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647797</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -832,7 +832,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>229.6952881956433</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>142.0902352657462</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,7 +905,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>391.4942353132365</v>
       </c>
     </row>
     <row r="6">
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>64.58216279976261</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,7 +1111,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>270.7236334749869</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>70.65789792662983</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>276.9911994672177</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1297,13 +1297,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967362454</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>37.34915078316273</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.08339867820416</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.05677735225818</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>212.6006968854821</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>156.3113891517337</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1844,13 +1844,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>251.4544892575854</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>24.62703520776763</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.3431845617052</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2606,7 +2606,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2773,7 +2773,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>225.0217776466596</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3272,7 +3272,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225717</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>211.4785282930371</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735226201</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>136.6047512078524</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225797</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1605.87881798384</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1177.297143721108</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>748.7154694583763</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,25 +4331,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1277.130531135514</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1407.204642120565</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>988.0621786998757</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.7760549995292</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>800.5379433870891</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>800.5379433870891</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6599505886118</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4486,52 +4486,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W4" t="n">
-        <v>1465.167987458555</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="X4" t="n">
-        <v>1219.776232791968</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y4" t="n">
-        <v>992.3565621060761</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6402219259112</v>
+        <v>574.4223959157544</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>540.3203271395817</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>508.4509463544302</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.7166055531294</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.4652647208</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657694</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657694</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2178.74515297471</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.128202908537</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1411.27274831957</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>992.1302848988809</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>596.6815623602581</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326467</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993474</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.8381257054811</v>
+        <v>787.1922181889424</v>
       </c>
       <c r="C7" t="n">
-        <v>187.8381257054811</v>
+        <v>614.6305066721674</v>
       </c>
       <c r="D7" t="n">
-        <v>187.8381257054811</v>
+        <v>448.75251387369</v>
       </c>
       <c r="E7" t="n">
-        <v>187.8381257054811</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="F7" t="n">
-        <v>187.8381257054811</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="G7" t="n">
-        <v>187.8381257054811</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2275.739883052312</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1997.306882305417</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1723.848666674117</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1451.822262260409</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1206.430507593821</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.8381257054811</v>
+        <v>979.0108369079296</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>587.4583232833319</v>
+        <v>1919.879325414605</v>
       </c>
       <c r="C8" t="n">
-        <v>516.086709216029</v>
+        <v>1885.777256638432</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>437.0247332457074</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>857.0776321906106</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>857.0776321906106</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>857.0776321906106</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1277.130531135514</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1033.105672808467</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X8" t="n">
-        <v>613.9632093877782</v>
+        <v>1946.384211519051</v>
       </c>
       <c r="Y8" t="n">
-        <v>609.7174897278356</v>
+        <v>1942.138491859109</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>542.1413766661235</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>369.5796651493484</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>203.7016723508711</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>958.7861344791625</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.524240083786</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1516.524240083786</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.797825151298</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1206.77142073759</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>961.3796660710025</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>733.9599953851107</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689265</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>96.7359766811152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510714</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302704</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4803.381259633332</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.381259633332</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.158956950349</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884175</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174173</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552876</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.5989800066058</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745668</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R13" t="n">
-        <v>2695.15641754123</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119685</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.84397037279</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.308741984732</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.166269168156</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1462.2564843426</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1028.481739500895</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>600.6143099101031</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.7359766811152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510714</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302704</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.79883405576</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928799</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245816</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.892354179642</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590676</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169986</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.60831246964</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077852</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077852</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077852</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077852</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077852</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>998.0484328177149</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>825.4867213009398</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>825.4867213009398</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881912</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583903</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503607</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177149</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181335</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364759</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539203</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945683</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548905</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781543</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137056</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137056</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742884</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832466</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.025028953175</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.025028953175</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953175</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.20469552348</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356877</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315471</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068528</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252364</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125402</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442419</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376246</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787279</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.61114936659</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666243</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126633</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493056</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958589</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228126</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389742</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051581</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137056</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818282</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480405</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.823109900179</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348562</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679132</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132057</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924265</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.0793854983019</v>
+        <v>811.7546776883928</v>
       </c>
       <c r="C19" t="n">
-        <v>776.5176739815269</v>
+        <v>639.1929661716177</v>
       </c>
       <c r="D19" t="n">
-        <v>610.6396811830496</v>
+        <v>639.1929661716177</v>
       </c>
       <c r="E19" t="n">
-        <v>440.8816774337869</v>
+        <v>469.434962422355</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1746233955429</v>
+        <v>292.7279083841112</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137056</v>
+        <v>127.1366334099388</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137056</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137056</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860604</v>
+        <v>188.8405254354706</v>
       </c>
       <c r="K19" t="n">
-        <v>459.921488157196</v>
+        <v>463.5989800066062</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251571</v>
+        <v>881.8088617745673</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113125</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.003789281486</v>
+        <v>2559.679081471577</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.124342859941</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U19" t="n">
-        <v>2172.691342113046</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V19" t="n">
-        <v>1885.735833983477</v>
+        <v>1748.411126173568</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.709429569768</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.317674903181</v>
+        <v>1230.992967093272</v>
       </c>
       <c r="Y19" t="n">
-        <v>1140.898004217289</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5908,13 +5908,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5969,13 +5969,13 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
@@ -5999,25 +5999,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
         <v>4550.100609912873</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883922</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.31497337314</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238772</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856334</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050032</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,28 +6227,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
         <v>5029.390139722817</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>843.1660143917136</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>677.2880215932363</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>330.8229638057297</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.92045017358</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.652494875571</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1680.357769979955</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1434.966015313368</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1207.546344627476</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6598,10 +6598,10 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
         <v>444.5591692831957</v>
@@ -6686,64 +6686,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
@@ -6944,7 +6944,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423628</v>
@@ -7096,28 +7096,28 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.598980006609</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S37" t="n">
         <v>2700.681281130895</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835213</v>
@@ -7163,10 +7163,10 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7333,7 +7333,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538673</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640441</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.543623087308</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305242</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305242</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834421</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.07841419448</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.07841419448</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410859</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981165</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814561</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773156</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526212</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526212</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.05875148274</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.836448799757</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.219498733583</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144616</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723927</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.935457023581</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218171</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584593</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050126</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319663</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481279</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143118</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305242</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909818</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571941</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282918</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282918</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282918</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282918</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282918</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282918</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223595</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015802</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.9095056074553</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>778.3477940906803</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>612.469801292203</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>442.7117975429403</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>266.0047435046965</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305242</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305242</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305242</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952141</v>
+        <v>188.8405254354736</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663497</v>
+        <v>463.5989800066092</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343107</v>
+        <v>881.8088617745702</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S43" t="n">
-        <v>2698.833909390639</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2452.954462969094</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2174.5214622222</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1887.56595409263</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1615.539549678922</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1370.147795012334</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1142.728124326442</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3598.448757555621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>3598.448757555621</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3598.448757555621</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.38502577451</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353821</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>947.2320137580464</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>774.6703022412713</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>608.792309442794</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>439.0343056935313</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>262.3272516552875</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.15641754123</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2449.276971119685</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2170.84397037279</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1883.888462243221</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1611.862057829513</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1366.470303162925</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1139.050632477034</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>72.80589558611246</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741822</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238407</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,25 +8611,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>321.9475215913874</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814579</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>860.0355415814579</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111826</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10118,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365290842</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,16 +11303,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>527.9769957459462</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.7319563997972</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.146865729423652</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627249</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>184.7831561774866</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>11.74903456003636</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>177.9825081357024</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>113.8761173587616</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>44.2843627229118</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.38802656265464</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627213</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>267.5985112554907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>493657.4912855122</v>
+        <v>502112.3729010291</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>493657.4912855122</v>
+        <v>503634.692931646</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493912.2188031352</v>
+        <v>514755.8788390234</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>493912.2188031353</v>
+        <v>514755.8788390234</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>500881.8005654478</v>
+        <v>514755.8788390234</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>514755.8788390234</v>
+        <v>514755.8788390235</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>507786.2970767109</v>
+        <v>514755.8788390235</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>493912.218803135</v>
+        <v>514755.8788390234</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>469128.9049041075</v>
       </c>
       <c r="C2" t="n">
-        <v>469128.9049041075</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="D2" t="n">
         <v>469128.9049041074</v>
       </c>
       <c r="E2" t="n">
-        <v>442333.410725217</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="F2" t="n">
-        <v>442333.4107252171</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="G2" t="n">
-        <v>448575.1653425102</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
         <v>461000.3861201833</v>
@@ -26335,7 +26335,7 @@
         <v>461000.3861201833</v>
       </c>
       <c r="J2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="K2" t="n">
         <v>461000.3861201833</v>
@@ -26344,16 +26344,16 @@
         <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
+        <v>461000.3861201835</v>
+      </c>
+      <c r="N2" t="n">
+        <v>461000.3861201834</v>
+      </c>
+      <c r="O2" t="n">
+        <v>461000.3861201835</v>
+      </c>
+      <c r="P2" t="n">
         <v>461000.3861201833</v>
-      </c>
-      <c r="N2" t="n">
-        <v>461000.3861201833</v>
-      </c>
-      <c r="O2" t="n">
-        <v>454758.6315028901</v>
-      </c>
-      <c r="P2" t="n">
-        <v>442333.4107252168</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.7678950164</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998255</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220375</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.21104284872</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996512</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.8546387727</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622134</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154981.0317940153</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>52352.49019908701</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
-        <v>52352.49019908701</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
-        <v>53091.23475128169</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="L4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="M4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="L4" t="n">
-        <v>54561.82510962271</v>
-      </c>
-      <c r="M4" t="n">
-        <v>54561.82510962277</v>
-      </c>
       <c r="N4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="O4" t="n">
-        <v>53823.08055742807</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>52352.49019908699</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024163</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319843</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73816.13645601083</v>
+        <v>73816.1364560108</v>
       </c>
       <c r="C6" t="n">
-        <v>216007.4371157207</v>
+        <v>175603.891407073</v>
       </c>
       <c r="D6" t="n">
-        <v>216007.4371157207</v>
+        <v>235378.5905465781</v>
       </c>
       <c r="E6" t="n">
-        <v>82106.55622644495</v>
+        <v>146341.9888443358</v>
       </c>
       <c r="F6" t="n">
-        <v>316461.5782484825</v>
+        <v>328697.0980653853</v>
       </c>
       <c r="G6" t="n">
-        <v>314231.3747481381</v>
+        <v>328697.0980653854</v>
       </c>
       <c r="H6" t="n">
-        <v>316317.5674248029</v>
+        <v>328697.0980653854</v>
       </c>
       <c r="I6" t="n">
-        <v>328720.3224047681</v>
+        <v>328697.0980653854</v>
       </c>
       <c r="J6" t="n">
-        <v>217705.8570597779</v>
+        <v>217682.6327203953</v>
       </c>
       <c r="K6" t="n">
-        <v>328720.3224047681</v>
+        <v>275651.2434266127</v>
       </c>
       <c r="L6" t="n">
-        <v>328720.3224047681</v>
+        <v>319304.7963387633</v>
       </c>
       <c r="M6" t="n">
-        <v>133119.1431217002</v>
+        <v>176496.927127398</v>
       </c>
       <c r="N6" t="n">
-        <v>328720.3224047681</v>
+        <v>328697.0980653855</v>
       </c>
       <c r="O6" t="n">
-        <v>324621.3148622636</v>
+        <v>328697.0980653855</v>
       </c>
       <c r="P6" t="n">
-        <v>316461.5782484823</v>
+        <v>328697.0980653854</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267132</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631553</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319233</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811761328</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319233</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811761328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>385.3672581857603</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>370.3579796189765</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27597,10 +27597,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>39.61085217392812</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>100.8476018541754</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,7 +27625,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>12.70902715010658</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27789,7 +27789,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>73.92098976676661</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>13.36231957328692</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>363.1031501617811</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>154.5594875100822</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28062,13 +28062,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>246.7368022651111</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>7.54122690220053e-13</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-8.621297684860279e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-8.194416931891906e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-9.189731873468358e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -34699,10 +34699,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>72.80589558611246</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741822</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238407</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>321.9475215913874</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,10 +35419,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814579</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960973</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,10 +35656,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>860.0355415814579</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111826</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908179</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,7 +36048,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961005</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37701,22 +37701,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821539</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365290842</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908485</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,22 +38017,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>527.9769957459462</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
